--- a/data/covid_data.xlsx
+++ b/data/covid_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUTER\Desktop\Predict-Vietnam-COVID\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A0B68-0E16-4391-8077-626F72653D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A8EFC-AE23-4FDE-AA93-8F63AEAFC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,8 +356,8 @@
   </sheetPr>
   <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J260"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
